--- a/testData.xlsx
+++ b/testData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhqcao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhqcao\Desktop\Project_lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
   <si>
     <t>right(s)</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>1(side)</t>
+  </si>
+  <si>
+    <t>angle with offset</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>VAR</t>
   </si>
 </sst>
 </file>
@@ -650,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C63">
-        <v>3.1</v>
+        <v>31</v>
       </c>
       <c r="D63">
         <v>44</v>
@@ -2561,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>3.1</v>
+        <v>31</v>
       </c>
       <c r="C64">
-        <v>3.2</v>
+        <v>32</v>
       </c>
       <c r="D64">
         <v>41</v>
@@ -2578,10 +2587,10 @@
         <v>3</v>
       </c>
       <c r="B65">
-        <v>3.1</v>
+        <v>31</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D65">
         <v>45</v>
@@ -2595,10 +2604,10 @@
         <v>4</v>
       </c>
       <c r="B66">
-        <v>3.2</v>
+        <v>32</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D66">
         <v>47</v>
@@ -2612,10 +2621,10 @@
         <v>5</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C67">
-        <v>3.1</v>
+        <v>31</v>
       </c>
       <c r="D67">
         <v>44</v>
@@ -2625,6 +2634,9 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
       <c r="D68">
         <v>50</v>
       </c>
@@ -2639,6 +2651,9 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
       <c r="D69">
         <v>47</v>
       </c>
@@ -2728,6 +2743,13 @@
       <c r="B73">
         <v>157.9</v>
       </c>
+      <c r="C73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73">
+        <f>AVERAGE(D63:D72)</f>
+        <v>44.7</v>
+      </c>
       <c r="I73" t="s">
         <v>1</v>
       </c>
@@ -2748,6 +2770,9 @@
       <c r="B74">
         <v>159.47999999999999</v>
       </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
       <c r="D74">
         <f xml:space="preserve"> VAR(D63:D72)*PI()/180*PI()/180</f>
         <v>2.3049384763860949E-3</v>
@@ -3047,11 +3072,29 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91">
+        <f>AVERAGE(B71:B90)</f>
+        <v>172.24699999999999</v>
+      </c>
       <c r="J91" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92">
+        <f>VAR(B71:B90)</f>
+        <v>101.39780105263155</v>
+      </c>
+      <c r="C92">
+        <f>B92*PI()*PI()/180/180</f>
+        <v>3.088753652869863E-2</v>
+      </c>
       <c r="J92">
         <v>6.5</v>
       </c>
@@ -3110,6 +3153,9 @@
       <c r="J98" t="s">
         <v>26</v>
       </c>
+      <c r="K98" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C99">
@@ -3714,6 +3760,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A109:A115"/>
     <mergeCell ref="B60:E60"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="Q1:R1"/>
@@ -3730,11 +3781,6 @@
     <mergeCell ref="H43:H49"/>
     <mergeCell ref="I32:N32"/>
     <mergeCell ref="J33:N33"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A109:A115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
